--- a/data/Michel CruzT2-2024.xlsx
+++ b/data/Michel CruzT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>19.62983973</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -676,6 +678,7 @@
         <v>0.00182127</v>
       </c>
     </row>
+    <row r="17"/>
     <row r="18">
       <c r="D18" s="6" t="inlineStr">
         <is>
@@ -701,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +717,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -721,6 +726,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -728,6 +734,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -980,6 +987,7 @@
         <v>0.00028178</v>
       </c>
     </row>
+    <row r="27"/>
     <row r="28">
       <c r="C28" s="6" t="inlineStr">
         <is>
@@ -1005,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,6 +1026,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1025,6 +1035,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,6 +1043,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1102,6 +1114,7 @@
         <v>0.0021077</v>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="C14" s="6" t="inlineStr">
         <is>
